--- a/output/Kenya_unformatted.xlsx
+++ b/output/Kenya_unformatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="870">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -2574,6 +2574,24 @@
   </si>
   <si>
     <t xml:space="preserve">7F-10048.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-20T10:46:09.398Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-08T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya/Drought: Nutrition( USAID/OFDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-03T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-10T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM180272</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-08T13:38:52.666Z</t>
@@ -26432,10 +26450,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>181218</v>
+        <v>179000</v>
       </c>
       <c r="B126" t="n">
-        <v>749971</v>
+        <v>1500000</v>
       </c>
       <c r="C126" t="n">
         <v>2018</v>
@@ -26469,13 +26487,13 @@
       </c>
       <c r="M126"/>
       <c r="N126" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="O126" s="1" t="n">
-        <v>43381</v>
+        <v>43332</v>
       </c>
       <c r="P126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q126" t="s">
         <v>74</v>
@@ -26499,10 +26517,10 @@
         <v>80</v>
       </c>
       <c r="X126" t="s">
-        <v>692</v>
+        <v>190</v>
       </c>
       <c r="Y126" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="Z126" t="s">
         <v>83</v>
@@ -26518,10 +26536,10 @@
         <v>80</v>
       </c>
       <c r="AE126" t="s">
-        <v>694</v>
+        <v>192</v>
       </c>
       <c r="AF126" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="AG126" t="s">
         <v>87</v>
@@ -26536,7 +26554,7 @@
         <v>88</v>
       </c>
       <c r="AK126" t="s">
-        <v>426</v>
+        <v>192</v>
       </c>
       <c r="AL126" t="s">
         <v>89</v>
@@ -26602,7 +26620,7 @@
         <v>80</v>
       </c>
       <c r="BI126" s="1" t="n">
-        <v>43320</v>
+        <v>43259</v>
       </c>
       <c r="BJ126"/>
       <c r="BK126"/>
@@ -26615,10 +26633,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>195291</v>
+        <v>181218</v>
       </c>
       <c r="B127" t="n">
-        <v>819309</v>
+        <v>749971</v>
       </c>
       <c r="C127" t="n">
         <v>2018</v>
@@ -26627,16 +26645,16 @@
         <v>860</v>
       </c>
       <c r="E127" t="s">
-        <v>824</v>
+        <v>861</v>
       </c>
       <c r="F127" t="s">
-        <v>824</v>
+        <v>80</v>
       </c>
       <c r="G127" t="s">
-        <v>825</v>
+        <v>862</v>
       </c>
       <c r="H127" t="s">
-        <v>826</v>
+        <v>863</v>
       </c>
       <c r="I127" t="s">
         <v>69</v>
@@ -26645,19 +26663,17 @@
         <v>70</v>
       </c>
       <c r="K127" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="L127" t="s">
         <v>72</v>
       </c>
-      <c r="M127" t="n">
-        <v>176284</v>
-      </c>
+      <c r="M127"/>
       <c r="N127" t="s">
         <v>73</v>
       </c>
       <c r="O127" s="1" t="n">
-        <v>43703</v>
+        <v>43381</v>
       </c>
       <c r="P127" t="n">
         <v>1</v>
@@ -26669,13 +26685,13 @@
         <v>75</v>
       </c>
       <c r="S127" t="s">
-        <v>214</v>
+        <v>425</v>
       </c>
       <c r="T127" t="s">
         <v>814</v>
       </c>
       <c r="U127" t="s">
-        <v>215</v>
+        <v>426</v>
       </c>
       <c r="V127" t="s">
         <v>815</v>
@@ -26684,10 +26700,10 @@
         <v>80</v>
       </c>
       <c r="X127" t="s">
-        <v>280</v>
+        <v>692</v>
       </c>
       <c r="Y127" t="s">
-        <v>861</v>
+        <v>80</v>
       </c>
       <c r="Z127" t="s">
         <v>83</v>
@@ -26703,10 +26719,10 @@
         <v>80</v>
       </c>
       <c r="AE127" t="s">
-        <v>281</v>
+        <v>694</v>
       </c>
       <c r="AF127" t="s">
-        <v>862</v>
+        <v>80</v>
       </c>
       <c r="AG127" t="s">
         <v>87</v>
@@ -26721,25 +26737,23 @@
         <v>88</v>
       </c>
       <c r="AK127" t="s">
-        <v>215</v>
+        <v>426</v>
       </c>
       <c r="AL127" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="AM127" t="s">
-        <v>273</v>
-      </c>
-      <c r="AN127" t="s">
-        <v>863</v>
-      </c>
+        <v>864</v>
+      </c>
+      <c r="AN127"/>
       <c r="AO127" t="s">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="AP127" t="s">
-        <v>80</v>
+        <v>429</v>
       </c>
       <c r="AQ127" t="s">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="AR127" t="s">
         <v>80</v>
@@ -26748,7 +26762,7 @@
         <v>80</v>
       </c>
       <c r="AT127" t="s">
-        <v>830</v>
+        <v>865</v>
       </c>
       <c r="AU127" t="s">
         <v>80</v>
@@ -26756,9 +26770,7 @@
       <c r="AV127" t="s">
         <v>80</v>
       </c>
-      <c r="AW127" t="n">
-        <v>0.815</v>
-      </c>
+      <c r="AW127"/>
       <c r="AX127" t="s">
         <v>80</v>
       </c>
@@ -26791,7 +26803,7 @@
         <v>80</v>
       </c>
       <c r="BI127" s="1" t="n">
-        <v>43173</v>
+        <v>43320</v>
       </c>
       <c r="BJ127"/>
       <c r="BK127"/>
@@ -26799,6 +26811,195 @@
         <v>1</v>
       </c>
       <c r="BM127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>195291</v>
+      </c>
+      <c r="B128" t="n">
+        <v>819309</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D128" t="s">
+        <v>866</v>
+      </c>
+      <c r="E128" t="s">
+        <v>824</v>
+      </c>
+      <c r="F128" t="s">
+        <v>824</v>
+      </c>
+      <c r="G128" t="s">
+        <v>825</v>
+      </c>
+      <c r="H128" t="s">
+        <v>826</v>
+      </c>
+      <c r="I128" t="s">
+        <v>69</v>
+      </c>
+      <c r="J128" t="s">
+        <v>70</v>
+      </c>
+      <c r="K128" t="s">
+        <v>104</v>
+      </c>
+      <c r="L128" t="s">
+        <v>72</v>
+      </c>
+      <c r="M128" t="n">
+        <v>176284</v>
+      </c>
+      <c r="N128" t="s">
+        <v>73</v>
+      </c>
+      <c r="O128" s="1" t="n">
+        <v>43703</v>
+      </c>
+      <c r="P128" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>74</v>
+      </c>
+      <c r="R128" t="s">
+        <v>75</v>
+      </c>
+      <c r="S128" t="s">
+        <v>214</v>
+      </c>
+      <c r="T128" t="s">
+        <v>814</v>
+      </c>
+      <c r="U128" t="s">
+        <v>215</v>
+      </c>
+      <c r="V128" t="s">
+        <v>815</v>
+      </c>
+      <c r="W128" t="s">
+        <v>80</v>
+      </c>
+      <c r="X128" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y128" t="s">
+        <v>867</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB128"/>
+      <c r="AC128" t="s">
+        <v>814</v>
+      </c>
+      <c r="AD128" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE128" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF128" t="s">
+        <v>868</v>
+      </c>
+      <c r="AG128" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH128" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI128" t="s">
+        <v>815</v>
+      </c>
+      <c r="AJ128" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK128" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL128" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM128" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN128" t="s">
+        <v>869</v>
+      </c>
+      <c r="AO128" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP128" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ128" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR128" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS128" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT128" t="s">
+        <v>830</v>
+      </c>
+      <c r="AU128" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV128" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>0.815</v>
+      </c>
+      <c r="AX128" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY128" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ128" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA128" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB128" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC128"/>
+      <c r="BD128" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE128" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF128" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG128" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH128" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI128" s="1" t="n">
+        <v>43173</v>
+      </c>
+      <c r="BJ128"/>
+      <c r="BK128"/>
+      <c r="BL128" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM128" t="b">
         <v>0</v>
       </c>
     </row>
